--- a/dashboard_loader/housing_indigenous_homeownership_uploader/housing_indigenous_homeownership.xlsx
+++ b/dashboard_loader/housing_indigenous_homeownership_uploader/housing_indigenous_homeownership.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t xml:space="preserve">Increase the rate of Indigenous home ownership</t>
   </si>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">There is currently no evidence to suggest that the proportion of Indigenous households that own their own home has increased nationally since 2008. </t>
   </si>
   <si>
-    <t xml:space="preserve">There is also variation between the trends shown by other data sources, so these results should be interpreted with caution. The 2011 Census shows an Indigenous home ownership rate of 36 per cent, about the same rate as in 2006. </t>
+    <t xml:space="preserve">There is also variation between the trends shown by other data sources, so these results should be interpreted with caution. The 2016 Census Indigenous home ownership rate was 38 per cent, similar to the 2011 and 2006 Census (ABS 2017).</t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrenched poverty is the strongest influence on Indigenous home ownership, forcing many to rely on social housing and excluding them from home ownership (AHURI, 2015).</t>
+    <t xml:space="preserve">Entrenched poverty is the strongest influence on Indigenous home ownership, forcing many to rely on social housing and excluding them from home ownership (AHURI 2015).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (2017), Census of Population and Housing: Characteristics of Aboriginal and Torres Strait Islander Australians, 2016, Cat. no. 2076.0.</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Housing and Urban Research Institute (AHURI), 2015, Indigenous housing - AHURI. [online] Available at: http://www.ahuri.edu.au/themes/indigenous_housing [Accessed 10 June 2015].</t>
@@ -137,7 +140,7 @@
     <numFmt numFmtId="165" formatCode="#\ ###\ ##0.0;\-#\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,87 +163,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -254,6 +176,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
@@ -261,77 +189,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -342,7 +213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,152 +237,96 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -523,7 +338,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -539,7 +354,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -569,17 +384,15 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B10 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +407,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -629,7 +442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>2008</v>
       </c>
@@ -664,7 +477,7 @@
         <v>32.48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>2008</v>
       </c>
@@ -699,7 +512,7 @@
         <v>2.429932736</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <v>2008</v>
       </c>
@@ -734,7 +547,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -769,7 +582,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -804,7 +617,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -839,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -874,20 +687,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:B10"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="99.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="99.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -895,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
@@ -903,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -911,7 +723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -919,7 +731,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -927,13 +739,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -941,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -949,20 +761,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
